--- a/TestList/7.0AHZJSZstudy.xlsx
+++ b/TestList/7.0AHZJSZstudy.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>序号
 （id）</t>
@@ -57,37 +57,49 @@
     <t>空</t>
   </si>
   <si>
+    <t>close bay big window</t>
+  </si>
+  <si>
+    <t>点击</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>//*[@id="flexbox1"]/div/a[2]</t>
+  </si>
+  <si>
+    <t>Account number</t>
+  </si>
+  <si>
+    <t>输入</t>
+  </si>
+  <si>
+    <t>//input[contains(@name,'useName')]</t>
+  </si>
+  <si>
+    <t>350125198903162422</t>
+  </si>
+  <si>
+    <t>close bay smallwindow</t>
+  </si>
+  <si>
+    <t>//*[@id="flexbox0"]/div/a[2]</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>//input[contains(@name,'passWord')]</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
     <t>close notice</t>
   </si>
   <si>
-    <t>点击</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>//a[contains(@i,'close')]</t>
-  </si>
-  <si>
-    <t>Account number</t>
-  </si>
-  <si>
-    <t>输入</t>
-  </si>
-  <si>
-    <t>//input[contains(@name,'useName')]</t>
-  </si>
-  <si>
-    <t>350125198903162422</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>//input[contains(@name,'passWord')]</t>
-  </si>
-  <si>
-    <t>000000</t>
+    <t xml:space="preserve">//a[contains(@i,'close')]  </t>
   </si>
   <si>
     <t>click code</t>
@@ -192,6 +204,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,134 +339,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -337,13 +349,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,169 +487,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,17 +540,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,39 +554,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -608,8 +576,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,16 +605,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,131 +658,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1135,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1240,39 +1252,39 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:6">
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1280,19 +1292,19 @@
         <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1305,8 +1317,8 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
+      <c r="E8" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>10</v>
@@ -1317,19 +1329,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1345,11 +1357,11 @@
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" t="s">
-        <v>31</v>
+      <c r="E10" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1357,16 +1369,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>10</v>
@@ -1385,11 +1397,11 @@
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1397,16 +1409,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>10</v>
@@ -1417,15 +1429,15 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1440,13 +1452,13 @@
         <v>40</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>41</v>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>10</v>
@@ -1457,15 +1469,15 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="6" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1480,10 +1492,10 @@
         <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E17" t="s">
         <v>45</v>
@@ -1500,30 +1512,70 @@
         <v>46</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>10</v>
       </c>
     </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D26:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21:D27">
+      <formula1>"URL,Xpath"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C30">
+      <formula1>"访问,输入,点击,等待"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D29">
       <formula1>"URL、Xpath"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19:D25">
-      <formula1>"URL,Xpath"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C28">
-      <formula1>"访问,输入,点击,等待"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D65524">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D30:D65526">
       <formula1>"xpath,name,id,css,text"</formula1>
     </dataValidation>
   </dataValidations>
